--- a/medicine/Enfance/Le_Fauteuil_d'argent/Le_Fauteuil_d'argent.xlsx
+++ b/medicine/Enfance/Le_Fauteuil_d'argent/Le_Fauteuil_d'argent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Fauteuil_d%27argent</t>
+          <t>Le_Fauteuil_d'argent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Fauteuil d'argent (en anglais : The Silver Chair) est un roman fantastique pour la jeunesse écrit par Clive Staples Lewis, publié en 1953. C'est le quatrième tome de la série Le Monde de Narnia, qui en compte sept. Dans l'ordre de lecture, c'est le sixième. Il voit apparaître une nouvelle protagoniste, Jill.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Fauteuil_d%27argent</t>
+          <t>Le_Fauteuil_d'argent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eustache — le cousin de Peter, Susan, Edmund et Lucy Pevensie — s'est métamorphosé depuis L'Odyssée du Passeur d'Aurore. Il est maintenant l'élève d'une école expérimentale mixte, où on laisse aux enfants une liberté telle que les plus forts martyrisent impunément les plus faibles — dont lui-même et son amie Jill Pole. Après un détour par le pays du Lion Aslan, tous deux se trouvent transportés à Narnia. Leur mission consiste à retrouver Rilian, un jeune prince appelé à succéder à Caspian maintenant âgé, qui a disparu peu après la mort de sa mère, dix ans auparavant.
 Les deux enfants s'en vont vers le nord accompagné d'un touille-marais. Ils rencontrent une belle dame à la robe verte accompagné d'un chevalier qui les envoie vers les Géants pour qu'ils y soient dévorés. Comprenant tardivement la menace qui pèse sur eux, ils parviennent à s'échapper et à rejoindre le monde souterrain qui vit sous la domination de la dame à la robe verte qui est sorcière.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Fauteuil_d%27argent</t>
+          <t>Le_Fauteuil_d'argent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Influences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prince Rilian est prisonnier d'une Sorcière, dans le Monde Souterrain, victime d'un sortilège qui lui fait oublier sa vie d'avant. Une fois libéré de ce sort, alors qu'il tente de s'enfuir avec Jill, Eustache et le Touille-Marais, la Sorcière cherche à leur faire croire que Narnia n'est que le produit d'un rêve, la réalité se trouvant dans le Monde Souterrain. Ce passage fait allusion à l'allégorie de la caverne de Platon[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prince Rilian est prisonnier d'une Sorcière, dans le Monde Souterrain, victime d'un sortilège qui lui fait oublier sa vie d'avant. Une fois libéré de ce sort, alors qu'il tente de s'enfuir avec Jill, Eustache et le Touille-Marais, la Sorcière cherche à leur faire croire que Narnia n'est que le produit d'un rêve, la réalité se trouvant dans le Monde Souterrain. Ce passage fait allusion à l'allégorie de la caverne de Platon.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Fauteuil_d%27argent</t>
+          <t>Le_Fauteuil_d'argent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Liste des chapitres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Derrière le gymnase
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Le_Fauteuil_d%27argent</t>
+          <t>Le_Fauteuil_d'argent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,10 +646,12 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1984 : Le Fauteuil d'argent ; Traduit par Hélène Seyrès, illustré par Pauline Baynes, collection : Bibliothèque du chat perché, Paris : Flammarion, 280 p.[2] (1re édition)  (ISBN 2-08-091764-1)
-2008 : Le Fauteuil d'argent ; Traduit par Philippe Morgaut, illustré par Pauline Baynes, Collection : Folio junior no 1211 ; Gallimard-Jeunesse, 257 p.[3]  (ISBN 978-2-07-061905-4)</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1984 : Le Fauteuil d'argent ; Traduit par Hélène Seyrès, illustré par Pauline Baynes, collection : Bibliothèque du chat perché, Paris : Flammarion, 280 p. (1re édition)  (ISBN 2-08-091764-1)
+2008 : Le Fauteuil d'argent ; Traduit par Philippe Morgaut, illustré par Pauline Baynes, Collection : Folio junior no 1211 ; Gallimard-Jeunesse, 257 p.  (ISBN 978-2-07-061905-4)</t>
         </is>
       </c>
     </row>
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Le_Fauteuil_d%27argent</t>
+          <t>Le_Fauteuil_d'argent</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +679,9 @@
           <t>Adaptation cinématographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le réalisateur Joe Johnston était l'un des invités du Comic Con de Paris il y a quelques jours et ce dernier a précisé que le prochain Narnia serait aussi son dernier film.
